--- a/results/mp/logistic/corona/confidence/84/masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,36 +40,33 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -79,24 +76,27 @@
     <t>no</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>of</t>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -112,10 +112,28 @@
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
@@ -124,67 +142,46 @@
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>hope</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
   <si>
     <t>you</t>
@@ -559,7 +556,7 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8611111111111112</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -667,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>29</v>
@@ -717,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8082191780821918</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K7">
-        <v>0.8381201044386423</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L7">
-        <v>321</v>
+        <v>27</v>
       </c>
       <c r="M7">
-        <v>321</v>
+        <v>27</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7027027027027027</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K8">
-        <v>0.8181818181818182</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L8">
-        <v>27</v>
+        <v>313</v>
       </c>
       <c r="M8">
-        <v>27</v>
+        <v>313</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5932203389830508</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5343915343915344</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C10">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="D10">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K10">
-        <v>0.8</v>
+        <v>0.8046875</v>
       </c>
       <c r="L10">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5294117647058824</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1064,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5077519379844961</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="C12">
-        <v>262</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>262</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>254</v>
+        <v>83</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K12">
-        <v>0.7890625</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L12">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M12">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4630872483221476</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C13">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K13">
-        <v>0.7830188679245284</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L13">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M13">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1164,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4133333333333333</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>39</v>
@@ -1217,13 +1214,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3916666666666667</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C15">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1235,19 +1232,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2380952380952381</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1285,19 +1282,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.775</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1309,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1317,13 +1314,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1420911528150134</v>
+        <v>0.1447721179624665</v>
       </c>
       <c r="C17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K17">
-        <v>0.7676056338028169</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L17">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01430976430976431</v>
+        <v>0.01168770453482936</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E18">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="F18">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>2342</v>
+        <v>2114</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>43</v>
@@ -1417,37 +1414,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01288244766505636</v>
+        <v>0.009026434558349452</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F19">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>3065</v>
+        <v>3074</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1459,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1467,37 +1464,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006608357628765792</v>
+        <v>0.005035246727089627</v>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E20">
-        <v>0.37</v>
+        <v>0.55</v>
       </c>
       <c r="F20">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>5111</v>
+        <v>4940</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K20">
-        <v>0.7301587301587301</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1509,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,37 +1514,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005224030540486237</v>
+        <v>0.004862867146469559</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E21">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="F21">
-        <v>0.5800000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>4951</v>
+        <v>5116</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K21">
-        <v>0.7209302325581395</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1559,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1567,13 +1564,13 @@
         <v>47</v>
       </c>
       <c r="K22">
-        <v>0.675</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1585,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1593,13 +1590,13 @@
         <v>48</v>
       </c>
       <c r="K23">
-        <v>0.6285714285714286</v>
+        <v>0.65</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1611,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1619,25 +1616,25 @@
         <v>49</v>
       </c>
       <c r="K24">
-        <v>0.611764705882353</v>
+        <v>0.6054421768707483</v>
       </c>
       <c r="L24">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="M24">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1645,13 +1642,13 @@
         <v>50</v>
       </c>
       <c r="K25">
-        <v>0.5864406779661017</v>
+        <v>0.6</v>
       </c>
       <c r="L25">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1663,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1671,13 +1668,13 @@
         <v>51</v>
       </c>
       <c r="K26">
-        <v>0.5851063829787234</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L26">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="M26">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1689,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1697,13 +1694,13 @@
         <v>52</v>
       </c>
       <c r="K27">
-        <v>0.5846153846153846</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1715,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1723,13 +1720,13 @@
         <v>53</v>
       </c>
       <c r="K28">
-        <v>0.5815899581589958</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L28">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1741,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1749,13 +1746,13 @@
         <v>54</v>
       </c>
       <c r="K29">
-        <v>0.58</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1767,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1775,13 +1772,13 @@
         <v>55</v>
       </c>
       <c r="K30">
-        <v>0.5168539325842697</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1793,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1801,25 +1798,25 @@
         <v>56</v>
       </c>
       <c r="K31">
-        <v>0.3424657534246575</v>
+        <v>0.02335279399499583</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>48</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1827,51 +1824,51 @@
         <v>57</v>
       </c>
       <c r="K32">
-        <v>0.02591973244147157</v>
+        <v>0.009767092411720512</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N32">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="O32">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1165</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="K33">
-        <v>0.0105026256564141</v>
+        <v>0.006236169784751559</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N33">
-        <v>0.8</v>
+        <v>0.55</v>
       </c>
       <c r="O33">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>2638</v>
+        <v>4940</v>
       </c>
     </row>
   </sheetData>
